--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Desktop\Colchonqn\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flia aliamdri\OneDrive\Desktop\colchonespremium\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="356">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1065,6 +1065,33 @@
   </si>
   <si>
     <t>Sommier</t>
+  </si>
+  <si>
+    <t>Mostrar</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NzjeCkw.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pTv3BgX.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Hvm9q5u.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gK6TFQ1.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fZ2rJGD.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1072,9 +1099,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1128,14 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1132,12 +1167,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1145,8 +1181,10 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Moneda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1428,10 +1466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1478,7 @@
     <col min="2" max="2" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -1450,8 +1488,14 @@
       <c r="C1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,8 +1505,14 @@
       <c r="C2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1472,8 +1522,14 @@
       <c r="C3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1483,8 +1539,14 @@
       <c r="C4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1494,8 +1556,11 @@
       <c r="C5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1505,8 +1570,11 @@
       <c r="C6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1516,8 +1584,11 @@
       <c r="C7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1527,8 +1598,11 @@
       <c r="C8" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1538,8 +1612,11 @@
       <c r="C9" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1549,8 +1626,11 @@
       <c r="C10" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1560,8 +1640,11 @@
       <c r="C11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1571,8 +1654,11 @@
       <c r="C12" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1582,8 +1668,11 @@
       <c r="C13" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1593,8 +1682,11 @@
       <c r="C14" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1604,8 +1696,11 @@
       <c r="C15" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,8 +1710,11 @@
       <c r="C16" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1724,11 @@
       <c r="C17" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1637,8 +1738,11 @@
       <c r="C18" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,8 +1752,11 @@
       <c r="C19" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1659,8 +1766,11 @@
       <c r="C20" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1670,8 +1780,11 @@
       <c r="C21" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1681,8 +1794,11 @@
       <c r="C22" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1692,8 +1808,11 @@
       <c r="C23" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1822,11 @@
       <c r="C24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1714,8 +1836,11 @@
       <c r="C25" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1850,11 @@
       <c r="C26" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1736,8 +1864,11 @@
       <c r="C27" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1747,8 +1878,11 @@
       <c r="C28" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1758,8 +1892,11 @@
       <c r="C29" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1769,8 +1906,11 @@
       <c r="C30" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1780,8 +1920,11 @@
       <c r="C31" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1791,8 +1934,11 @@
       <c r="C32" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1802,8 +1948,11 @@
       <c r="C33" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1813,8 +1962,11 @@
       <c r="C34" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1824,8 +1976,11 @@
       <c r="C35" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1835,8 +1990,11 @@
       <c r="C36" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1846,8 +2004,11 @@
       <c r="C37" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1857,8 +2018,11 @@
       <c r="C38" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1868,8 +2032,11 @@
       <c r="C39" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1879,8 +2046,11 @@
       <c r="C40" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1890,8 +2060,11 @@
       <c r="C41" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1901,8 +2074,11 @@
       <c r="C42" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1912,8 +2088,11 @@
       <c r="C43" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1923,8 +2102,11 @@
       <c r="C44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2116,11 @@
       <c r="C45" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1945,8 +2130,11 @@
       <c r="C46" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1956,8 +2144,11 @@
       <c r="C47" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1967,8 +2158,11 @@
       <c r="C48" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1978,8 +2172,11 @@
       <c r="C49" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2186,11 @@
       <c r="C50" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2000,8 +2200,11 @@
       <c r="C51" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2011,8 +2214,11 @@
       <c r="C52" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,8 +2228,11 @@
       <c r="C53" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2033,8 +2242,11 @@
       <c r="C54" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2044,8 +2256,11 @@
       <c r="C55" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2055,8 +2270,11 @@
       <c r="C56" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2066,8 +2284,11 @@
       <c r="C57" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2077,8 +2298,11 @@
       <c r="C58" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2088,8 +2312,11 @@
       <c r="C59" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2099,8 +2326,11 @@
       <c r="C60" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2110,8 +2340,11 @@
       <c r="C61" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2121,8 +2354,11 @@
       <c r="C62" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2132,8 +2368,11 @@
       <c r="C63" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2143,8 +2382,11 @@
       <c r="C64" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2154,8 +2396,11 @@
       <c r="C65" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2165,8 +2410,11 @@
       <c r="C66" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2176,8 +2424,11 @@
       <c r="C67" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2187,8 +2438,11 @@
       <c r="C68" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2198,8 +2452,11 @@
       <c r="C69" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2209,8 +2466,11 @@
       <c r="C70" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2220,8 +2480,11 @@
       <c r="C71" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2231,8 +2494,11 @@
       <c r="C72" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2242,8 +2508,11 @@
       <c r="C73" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2253,8 +2522,11 @@
       <c r="C74" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2264,8 +2536,11 @@
       <c r="C75" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2275,8 +2550,11 @@
       <c r="C76" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2286,8 +2564,11 @@
       <c r="C77" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2297,8 +2578,11 @@
       <c r="C78" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2308,8 +2592,11 @@
       <c r="C79" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2319,8 +2606,11 @@
       <c r="C80" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2330,8 +2620,11 @@
       <c r="C81" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2341,8 +2634,11 @@
       <c r="C82" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2352,8 +2648,11 @@
       <c r="C83" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2363,8 +2662,11 @@
       <c r="C84" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -2374,8 +2676,11 @@
       <c r="C85" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -2385,8 +2690,11 @@
       <c r="C86" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -2396,8 +2704,11 @@
       <c r="C87" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -2407,8 +2718,11 @@
       <c r="C88" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -2418,8 +2732,11 @@
       <c r="C89" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -2429,8 +2746,11 @@
       <c r="C90" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -2440,8 +2760,11 @@
       <c r="C91" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2451,8 +2774,11 @@
       <c r="C92" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2462,8 +2788,11 @@
       <c r="C93" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -2473,8 +2802,11 @@
       <c r="C94" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -2484,8 +2816,11 @@
       <c r="C95" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -2495,8 +2830,11 @@
       <c r="C96" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2506,8 +2844,11 @@
       <c r="C97" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -2517,8 +2858,11 @@
       <c r="C98" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -2528,8 +2872,11 @@
       <c r="C99" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -2539,8 +2886,11 @@
       <c r="C100" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -2550,8 +2900,11 @@
       <c r="C101" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -2561,8 +2914,11 @@
       <c r="C102" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -2572,8 +2928,11 @@
       <c r="C103" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -2583,8 +2942,11 @@
       <c r="C104" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -2594,8 +2956,11 @@
       <c r="C105" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -2605,8 +2970,11 @@
       <c r="C106" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -2616,8 +2984,11 @@
       <c r="C107" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -2627,8 +2998,11 @@
       <c r="C108" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -2638,8 +3012,11 @@
       <c r="C109" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -2649,8 +3026,11 @@
       <c r="C110" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -2660,8 +3040,11 @@
       <c r="C111" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -2671,8 +3054,11 @@
       <c r="C112" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -2682,8 +3068,11 @@
       <c r="C113" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -2693,8 +3082,11 @@
       <c r="C114" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -2704,8 +3096,11 @@
       <c r="C115" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -2715,8 +3110,11 @@
       <c r="C116" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -2726,8 +3124,11 @@
       <c r="C117" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -2737,8 +3138,11 @@
       <c r="C118" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -2748,8 +3152,11 @@
       <c r="C119" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -2759,8 +3166,11 @@
       <c r="C120" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -2770,8 +3180,11 @@
       <c r="C121" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -2781,8 +3194,11 @@
       <c r="C122" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -2792,8 +3208,11 @@
       <c r="C123" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -2803,8 +3222,11 @@
       <c r="C124" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -2814,8 +3236,11 @@
       <c r="C125" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -2825,8 +3250,11 @@
       <c r="C126" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -2836,8 +3264,11 @@
       <c r="C127" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -2847,8 +3278,11 @@
       <c r="C128" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -2858,8 +3292,11 @@
       <c r="C129" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -2869,8 +3306,11 @@
       <c r="C130" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -2880,8 +3320,11 @@
       <c r="C131" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -2891,8 +3334,11 @@
       <c r="C132" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -2902,8 +3348,11 @@
       <c r="C133" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -2913,8 +3362,11 @@
       <c r="C134" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -2924,8 +3376,11 @@
       <c r="C135" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -2935,8 +3390,11 @@
       <c r="C136" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -2946,8 +3404,11 @@
       <c r="C137" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -2957,8 +3418,11 @@
       <c r="C138" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -2968,8 +3432,11 @@
       <c r="C139" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -2979,8 +3446,11 @@
       <c r="C140" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -2990,8 +3460,11 @@
       <c r="C141" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -3001,8 +3474,11 @@
       <c r="C142" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -3012,8 +3488,11 @@
       <c r="C143" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -3023,8 +3502,11 @@
       <c r="C144" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -3034,8 +3516,11 @@
       <c r="C145" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -3045,8 +3530,11 @@
       <c r="C146" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -3056,8 +3544,11 @@
       <c r="C147" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -3067,8 +3558,11 @@
       <c r="C148" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -3078,8 +3572,11 @@
       <c r="C149" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -3089,8 +3586,11 @@
       <c r="C150" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -3100,8 +3600,11 @@
       <c r="C151" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -3111,8 +3614,11 @@
       <c r="C152" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -3122,8 +3628,11 @@
       <c r="C153" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -3133,8 +3642,11 @@
       <c r="C154" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -3144,8 +3656,11 @@
       <c r="C155" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -3155,8 +3670,11 @@
       <c r="C156" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -3166,8 +3684,11 @@
       <c r="C157" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -3177,8 +3698,11 @@
       <c r="C158" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -3188,8 +3712,11 @@
       <c r="C159" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -3199,8 +3726,11 @@
       <c r="C160" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -3210,8 +3740,11 @@
       <c r="C161" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -3221,8 +3754,11 @@
       <c r="C162" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -3232,8 +3768,11 @@
       <c r="C163" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -3243,8 +3782,11 @@
       <c r="C164" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -3254,8 +3796,11 @@
       <c r="C165" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -3265,8 +3810,11 @@
       <c r="C166" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -3276,8 +3824,11 @@
       <c r="C167" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -3287,8 +3838,11 @@
       <c r="C168" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3298,8 +3852,11 @@
       <c r="C169" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3309,8 +3866,11 @@
       <c r="C170" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -3320,8 +3880,11 @@
       <c r="C171" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -3331,8 +3894,11 @@
       <c r="C172" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -3342,8 +3908,14 @@
       <c r="C173" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>350</v>
+      </c>
+      <c r="E173" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -3353,8 +3925,11 @@
       <c r="C174" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -3364,8 +3939,11 @@
       <c r="C175" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -3375,8 +3953,11 @@
       <c r="C176" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -3386,8 +3967,11 @@
       <c r="C177" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -3397,8 +3981,14 @@
       <c r="C178" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>350</v>
+      </c>
+      <c r="E178" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -3408,8 +3998,11 @@
       <c r="C179" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -3419,8 +4012,11 @@
       <c r="C180" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -3430,8 +4026,11 @@
       <c r="C181" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -3441,8 +4040,11 @@
       <c r="C182" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -3452,8 +4054,14 @@
       <c r="C183" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>350</v>
+      </c>
+      <c r="E183" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -3463,8 +4071,11 @@
       <c r="C184" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -3474,8 +4085,11 @@
       <c r="C185" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -3485,8 +4099,11 @@
       <c r="C186" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -3496,8 +4113,11 @@
       <c r="C187" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -3507,8 +4127,11 @@
       <c r="C188" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -3518,8 +4141,11 @@
       <c r="C189" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -3529,8 +4155,11 @@
       <c r="C190" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -3540,8 +4169,11 @@
       <c r="C191" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -3551,8 +4183,11 @@
       <c r="C192" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -3562,8 +4197,11 @@
       <c r="C193" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -3573,8 +4211,11 @@
       <c r="C194" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -3584,8 +4225,11 @@
       <c r="C195" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -3595,8 +4239,11 @@
       <c r="C196" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -3606,8 +4253,11 @@
       <c r="C197" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -3617,8 +4267,11 @@
       <c r="C198" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -3628,8 +4281,14 @@
       <c r="C199" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>350</v>
+      </c>
+      <c r="E199" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -3639,8 +4298,11 @@
       <c r="C200" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -3650,8 +4312,11 @@
       <c r="C201" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -3661,8 +4326,11 @@
       <c r="C202" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -3672,8 +4340,11 @@
       <c r="C203" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -3683,8 +4354,11 @@
       <c r="C204" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -3694,8 +4368,11 @@
       <c r="C205" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -3705,8 +4382,11 @@
       <c r="C206" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -3716,8 +4396,11 @@
       <c r="C207" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -3727,8 +4410,11 @@
       <c r="C208" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
@@ -3738,8 +4424,11 @@
       <c r="C209" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
@@ -3749,8 +4438,11 @@
       <c r="C210" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
@@ -3760,8 +4452,11 @@
       <c r="C211" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
@@ -3771,8 +4466,11 @@
       <c r="C212" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
@@ -3782,8 +4480,11 @@
       <c r="C213" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
@@ -3793,8 +4494,11 @@
       <c r="C214" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -3804,8 +4508,11 @@
       <c r="C215" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -3815,8 +4522,11 @@
       <c r="C216" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
@@ -3826,8 +4536,11 @@
       <c r="C217" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
@@ -3837,8 +4550,11 @@
       <c r="C218" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
@@ -3848,8 +4564,11 @@
       <c r="C219" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
@@ -3859,8 +4578,11 @@
       <c r="C220" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
@@ -3870,8 +4592,11 @@
       <c r="C221" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -3881,8 +4606,11 @@
       <c r="C222" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
@@ -3892,8 +4620,11 @@
       <c r="C223" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
@@ -3903,8 +4634,11 @@
       <c r="C224" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -3914,8 +4648,11 @@
       <c r="C225" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
@@ -3925,8 +4662,11 @@
       <c r="C226" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -3936,8 +4676,11 @@
       <c r="C227" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -3947,8 +4690,11 @@
       <c r="C228" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -3958,8 +4704,11 @@
       <c r="C229" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -3969,8 +4718,11 @@
       <c r="C230" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -3980,8 +4732,11 @@
       <c r="C231" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
@@ -3991,8 +4746,11 @@
       <c r="C232" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -4002,8 +4760,11 @@
       <c r="C233" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -4013,8 +4774,11 @@
       <c r="C234" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -4024,8 +4788,11 @@
       <c r="C235" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -4035,8 +4802,11 @@
       <c r="C236" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -4046,8 +4816,11 @@
       <c r="C237" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -4057,8 +4830,11 @@
       <c r="C238" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -4068,8 +4844,11 @@
       <c r="C239" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -4079,8 +4858,11 @@
       <c r="C240" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
@@ -4090,8 +4872,11 @@
       <c r="C241" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -4101,8 +4886,11 @@
       <c r="C242" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
@@ -4112,8 +4900,11 @@
       <c r="C243" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
@@ -4123,8 +4914,11 @@
       <c r="C244" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
@@ -4134,8 +4928,11 @@
       <c r="C245" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
@@ -4145,8 +4942,11 @@
       <c r="C246" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
@@ -4156,8 +4956,11 @@
       <c r="C247" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
@@ -4167,8 +4970,11 @@
       <c r="C248" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -4178,8 +4984,11 @@
       <c r="C249" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -4189,8 +4998,11 @@
       <c r="C250" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -4200,8 +5012,11 @@
       <c r="C251" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -4211,8 +5026,11 @@
       <c r="C252" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -4222,8 +5040,11 @@
       <c r="C253" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
@@ -4233,8 +5054,11 @@
       <c r="C254" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
@@ -4244,8 +5068,11 @@
       <c r="C255" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
@@ -4255,8 +5082,11 @@
       <c r="C256" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
@@ -4266,8 +5096,11 @@
       <c r="C257" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
@@ -4277,8 +5110,11 @@
       <c r="C258" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
@@ -4288,8 +5124,11 @@
       <c r="C259" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
@@ -4299,8 +5138,11 @@
       <c r="C260" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
@@ -4310,8 +5152,11 @@
       <c r="C261" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
@@ -4321,8 +5166,11 @@
       <c r="C262" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
@@ -4332,8 +5180,11 @@
       <c r="C263" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
@@ -4343,8 +5194,11 @@
       <c r="C264" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
@@ -4354,8 +5208,11 @@
       <c r="C265" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
@@ -4365,8 +5222,11 @@
       <c r="C266" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
@@ -4376,8 +5236,11 @@
       <c r="C267" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
@@ -4387,8 +5250,11 @@
       <c r="C268" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -4398,8 +5264,11 @@
       <c r="C269" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
@@ -4409,8 +5278,11 @@
       <c r="C270" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
@@ -4420,8 +5292,11 @@
       <c r="C271" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
@@ -4431,8 +5306,11 @@
       <c r="C272" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
@@ -4442,8 +5320,11 @@
       <c r="C273" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
@@ -4453,8 +5334,11 @@
       <c r="C274" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
@@ -4464,8 +5348,11 @@
       <c r="C275" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
@@ -4475,8 +5362,11 @@
       <c r="C276" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
@@ -4486,8 +5376,11 @@
       <c r="C277" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
@@ -4497,8 +5390,11 @@
       <c r="C278" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
@@ -4508,8 +5404,11 @@
       <c r="C279" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
@@ -4519,8 +5418,11 @@
       <c r="C280" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
@@ -4530,8 +5432,11 @@
       <c r="C281" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
@@ -4541,8 +5446,11 @@
       <c r="C282" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
@@ -4552,8 +5460,11 @@
       <c r="C283" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
@@ -4563,8 +5474,11 @@
       <c r="C284" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
@@ -4574,8 +5488,11 @@
       <c r="C285" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
@@ -4585,8 +5502,11 @@
       <c r="C286" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
@@ -4596,8 +5516,11 @@
       <c r="C287" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
@@ -4607,8 +5530,11 @@
       <c r="C288" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
@@ -4618,8 +5544,11 @@
       <c r="C289" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
@@ -4629,8 +5558,11 @@
       <c r="C290" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
@@ -4640,8 +5572,11 @@
       <c r="C291" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
@@ -4651,8 +5586,11 @@
       <c r="C292" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
@@ -4662,8 +5600,11 @@
       <c r="C293" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
@@ -4673,8 +5614,11 @@
       <c r="C294" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
@@ -4684,8 +5628,11 @@
       <c r="C295" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
@@ -4695,8 +5642,11 @@
       <c r="C296" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
@@ -4706,8 +5656,11 @@
       <c r="C297" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
@@ -4717,8 +5670,11 @@
       <c r="C298" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
@@ -4728,8 +5684,11 @@
       <c r="C299" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
@@ -4739,8 +5698,11 @@
       <c r="C300" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
@@ -4750,8 +5712,11 @@
       <c r="C301" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
@@ -4761,8 +5726,11 @@
       <c r="C302" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
@@ -4772,8 +5740,11 @@
       <c r="C303" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
@@ -4783,8 +5754,11 @@
       <c r="C304" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
@@ -4794,8 +5768,11 @@
       <c r="C305" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>304</v>
       </c>
@@ -4805,8 +5782,11 @@
       <c r="C306" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
@@ -4816,8 +5796,11 @@
       <c r="C307" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
@@ -4827,8 +5810,11 @@
       <c r="C308" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
@@ -4838,8 +5824,11 @@
       <c r="C309" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
@@ -4849,8 +5838,11 @@
       <c r="C310" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
@@ -4860,8 +5852,11 @@
       <c r="C311" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
@@ -4871,8 +5866,11 @@
       <c r="C312" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
@@ -4882,8 +5880,11 @@
       <c r="C313" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
@@ -4893,8 +5894,11 @@
       <c r="C314" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
@@ -4904,8 +5908,11 @@
       <c r="C315" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
@@ -4915,8 +5922,11 @@
       <c r="C316" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
@@ -4926,8 +5936,11 @@
       <c r="C317" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>316</v>
       </c>
@@ -4937,8 +5950,11 @@
       <c r="C318" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>317</v>
       </c>
@@ -4948,8 +5964,11 @@
       <c r="C319" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
@@ -4959,8 +5978,11 @@
       <c r="C320" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
@@ -4970,8 +5992,11 @@
       <c r="C321" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -4981,8 +6006,11 @@
       <c r="C322" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
@@ -4992,8 +6020,11 @@
       <c r="C323" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -5003,8 +6034,11 @@
       <c r="C324" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
@@ -5014,8 +6048,11 @@
       <c r="C325" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -5025,8 +6062,11 @@
       <c r="C326" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
@@ -5036,8 +6076,11 @@
       <c r="C327" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -5047,8 +6090,11 @@
       <c r="C328" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
@@ -5058,8 +6104,11 @@
       <c r="C329" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
@@ -5069,8 +6118,11 @@
       <c r="C330" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
@@ -5080,8 +6132,11 @@
       <c r="C331" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
@@ -5091,8 +6146,11 @@
       <c r="C332" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
@@ -5102,8 +6160,11 @@
       <c r="C333" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
@@ -5113,8 +6174,11 @@
       <c r="C334" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
@@ -5124,8 +6188,11 @@
       <c r="C335" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
@@ -5135,8 +6202,11 @@
       <c r="C336" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -5146,8 +6216,11 @@
       <c r="C337" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -5157,8 +6230,11 @@
       <c r="C338" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -5168,8 +6244,11 @@
       <c r="C339" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -5179,8 +6258,15 @@
       <c r="C340" t="s">
         <v>346</v>
       </c>
+      <c r="D340" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="https://i.imgur.com/fZ2rJGD.jpeg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -1101,7 +1101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,14 +1128,6 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1167,11 +1159,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1181,10 +1172,9 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Moneda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1468,14 +1458,15 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,7 +1482,7 @@
       <c r="D1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3911,7 +3902,7 @@
       <c r="D173" t="s">
         <v>350</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="7" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3984,7 +3975,7 @@
       <c r="D178" t="s">
         <v>350</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="7" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4057,7 +4048,7 @@
       <c r="D183" t="s">
         <v>350</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="7" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4284,7 +4275,7 @@
       <c r="D199" t="s">
         <v>350</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="7" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6263,10 +6254,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="https://i.imgur.com/fZ2rJGD.jpeg"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flia aliamdri\OneDrive\Desktop\colchonespremium\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Desktop\Colchonqn\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="350">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1070,28 +1070,10 @@
     <t>Mostrar</t>
   </si>
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>si</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/NzjeCkw.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/pTv3BgX.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/Hvm9q5u.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/gK6TFQ1.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/fZ2rJGD.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1081,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1162,9 +1144,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1172,7 +1154,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda 2" xfId="2"/>
@@ -1456,20 +1437,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -1482,11 +1462,8 @@
       <c r="D1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,13 +1474,10 @@
         <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1514,13 +1488,10 @@
         <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1531,13 +1502,10 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1548,10 +1516,10 @@
         <v>342</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1562,10 +1530,10 @@
         <v>342</v>
       </c>
       <c r="D6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1576,10 +1544,10 @@
         <v>342</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1590,10 +1558,10 @@
         <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1604,10 +1572,10 @@
         <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1618,10 +1586,10 @@
         <v>342</v>
       </c>
       <c r="D10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1632,10 +1600,10 @@
         <v>342</v>
       </c>
       <c r="D11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1646,10 +1614,10 @@
         <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1660,10 +1628,10 @@
         <v>342</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1674,10 +1642,10 @@
         <v>342</v>
       </c>
       <c r="D14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1688,10 +1656,10 @@
         <v>342</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1670,7 @@
         <v>342</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1684,7 @@
         <v>342</v>
       </c>
       <c r="D17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,7 +1698,7 @@
         <v>342</v>
       </c>
       <c r="D18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,7 +1712,7 @@
         <v>342</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,7 +1726,7 @@
         <v>342</v>
       </c>
       <c r="D20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,7 +1740,7 @@
         <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1754,7 @@
         <v>343</v>
       </c>
       <c r="D22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,7 +1768,7 @@
         <v>344</v>
       </c>
       <c r="D23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +1782,7 @@
         <v>344</v>
       </c>
       <c r="D24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,7 +1796,7 @@
         <v>344</v>
       </c>
       <c r="D25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,7 +1810,7 @@
         <v>344</v>
       </c>
       <c r="D26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,7 +1824,7 @@
         <v>344</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,7 +1838,7 @@
         <v>344</v>
       </c>
       <c r="D28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,7 +1852,7 @@
         <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,7 +1866,7 @@
         <v>344</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,7 +1880,7 @@
         <v>344</v>
       </c>
       <c r="D31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,7 +1894,7 @@
         <v>344</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,7 +1908,7 @@
         <v>344</v>
       </c>
       <c r="D33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,7 +1922,7 @@
         <v>344</v>
       </c>
       <c r="D34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,7 +1936,7 @@
         <v>344</v>
       </c>
       <c r="D35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1982,7 +1950,7 @@
         <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1996,7 +1964,7 @@
         <v>344</v>
       </c>
       <c r="D37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2010,7 +1978,7 @@
         <v>344</v>
       </c>
       <c r="D38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2024,7 +1992,7 @@
         <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2038,7 +2006,7 @@
         <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2052,7 +2020,7 @@
         <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2066,7 +2034,7 @@
         <v>344</v>
       </c>
       <c r="D42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,7 +2048,7 @@
         <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2094,7 +2062,7 @@
         <v>344</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,7 +2076,7 @@
         <v>344</v>
       </c>
       <c r="D45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2122,7 +2090,7 @@
         <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2136,7 +2104,7 @@
         <v>344</v>
       </c>
       <c r="D47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2150,7 +2118,7 @@
         <v>344</v>
       </c>
       <c r="D48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2164,7 +2132,7 @@
         <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,7 +2146,7 @@
         <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,7 +2160,7 @@
         <v>344</v>
       </c>
       <c r="D51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,7 +2174,7 @@
         <v>344</v>
       </c>
       <c r="D52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,7 +2188,7 @@
         <v>344</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,7 +2202,7 @@
         <v>344</v>
       </c>
       <c r="D54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,7 +2216,7 @@
         <v>344</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,7 +2230,7 @@
         <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2276,7 +2244,7 @@
         <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,7 +2258,7 @@
         <v>344</v>
       </c>
       <c r="D58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,7 +2272,7 @@
         <v>344</v>
       </c>
       <c r="D59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2318,7 +2286,7 @@
         <v>344</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,7 +2300,7 @@
         <v>344</v>
       </c>
       <c r="D61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,7 +2314,7 @@
         <v>344</v>
       </c>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,7 +2328,7 @@
         <v>344</v>
       </c>
       <c r="D63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,7 +2342,7 @@
         <v>344</v>
       </c>
       <c r="D64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,7 +2356,7 @@
         <v>344</v>
       </c>
       <c r="D65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,7 +2370,7 @@
         <v>344</v>
       </c>
       <c r="D66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2416,7 +2384,7 @@
         <v>344</v>
       </c>
       <c r="D67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,7 +2398,7 @@
         <v>344</v>
       </c>
       <c r="D68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,7 +2412,7 @@
         <v>344</v>
       </c>
       <c r="D69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,7 +2426,7 @@
         <v>344</v>
       </c>
       <c r="D70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2472,7 +2440,7 @@
         <v>344</v>
       </c>
       <c r="D71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,7 +2454,7 @@
         <v>344</v>
       </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,7 +2468,7 @@
         <v>344</v>
       </c>
       <c r="D73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,7 +2482,7 @@
         <v>344</v>
       </c>
       <c r="D74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2496,7 @@
         <v>344</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2542,7 +2510,7 @@
         <v>344</v>
       </c>
       <c r="D76" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,7 +2524,7 @@
         <v>344</v>
       </c>
       <c r="D77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,7 +2538,7 @@
         <v>344</v>
       </c>
       <c r="D78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,7 +2552,7 @@
         <v>344</v>
       </c>
       <c r="D79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,7 +2566,7 @@
         <v>344</v>
       </c>
       <c r="D80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,7 +2580,7 @@
         <v>344</v>
       </c>
       <c r="D81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,7 +2594,7 @@
         <v>344</v>
       </c>
       <c r="D82" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2640,7 +2608,7 @@
         <v>344</v>
       </c>
       <c r="D83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2654,7 +2622,7 @@
         <v>344</v>
       </c>
       <c r="D84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2668,7 +2636,7 @@
         <v>344</v>
       </c>
       <c r="D85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,7 +2650,7 @@
         <v>344</v>
       </c>
       <c r="D86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2696,7 +2664,7 @@
         <v>344</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,7 +2678,7 @@
         <v>344</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2724,7 +2692,7 @@
         <v>344</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2738,7 +2706,7 @@
         <v>344</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2752,7 +2720,7 @@
         <v>344</v>
       </c>
       <c r="D91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2766,7 +2734,7 @@
         <v>344</v>
       </c>
       <c r="D92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,7 +2748,7 @@
         <v>344</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2794,7 +2762,7 @@
         <v>344</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2808,7 +2776,7 @@
         <v>344</v>
       </c>
       <c r="D95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,7 +2790,7 @@
         <v>344</v>
       </c>
       <c r="D96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2836,7 +2804,7 @@
         <v>344</v>
       </c>
       <c r="D97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2850,7 +2818,7 @@
         <v>344</v>
       </c>
       <c r="D98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2864,7 +2832,7 @@
         <v>344</v>
       </c>
       <c r="D99" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2878,7 +2846,7 @@
         <v>344</v>
       </c>
       <c r="D100" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,7 +2860,7 @@
         <v>344</v>
       </c>
       <c r="D101" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,7 +2874,7 @@
         <v>344</v>
       </c>
       <c r="D102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2920,7 +2888,7 @@
         <v>344</v>
       </c>
       <c r="D103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,7 +2902,7 @@
         <v>344</v>
       </c>
       <c r="D104" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2948,7 +2916,7 @@
         <v>344</v>
       </c>
       <c r="D105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,7 +2930,7 @@
         <v>344</v>
       </c>
       <c r="D106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2976,7 +2944,7 @@
         <v>344</v>
       </c>
       <c r="D107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,7 +2958,7 @@
         <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,7 +2972,7 @@
         <v>344</v>
       </c>
       <c r="D109" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,7 +2986,7 @@
         <v>344</v>
       </c>
       <c r="D110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3032,7 +3000,7 @@
         <v>344</v>
       </c>
       <c r="D111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3046,7 +3014,7 @@
         <v>344</v>
       </c>
       <c r="D112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3060,7 +3028,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3074,7 +3042,7 @@
         <v>344</v>
       </c>
       <c r="D114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,7 +3056,7 @@
         <v>344</v>
       </c>
       <c r="D115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,7 +3070,7 @@
         <v>344</v>
       </c>
       <c r="D116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,7 +3084,7 @@
         <v>344</v>
       </c>
       <c r="D117" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,7 +3098,7 @@
         <v>344</v>
       </c>
       <c r="D118" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3144,7 +3112,7 @@
         <v>344</v>
       </c>
       <c r="D119" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3158,7 +3126,7 @@
         <v>344</v>
       </c>
       <c r="D120" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,7 +3140,7 @@
         <v>344</v>
       </c>
       <c r="D121" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3186,7 +3154,7 @@
         <v>344</v>
       </c>
       <c r="D122" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3200,7 +3168,7 @@
         <v>344</v>
       </c>
       <c r="D123" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3214,7 +3182,7 @@
         <v>344</v>
       </c>
       <c r="D124" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,7 +3196,7 @@
         <v>344</v>
       </c>
       <c r="D125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3242,7 +3210,7 @@
         <v>344</v>
       </c>
       <c r="D126" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3256,7 +3224,7 @@
         <v>344</v>
       </c>
       <c r="D127" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,7 +3238,7 @@
         <v>344</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,7 +3252,7 @@
         <v>344</v>
       </c>
       <c r="D129" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3298,7 +3266,7 @@
         <v>344</v>
       </c>
       <c r="D130" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3312,7 +3280,7 @@
         <v>344</v>
       </c>
       <c r="D131" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3326,7 +3294,7 @@
         <v>344</v>
       </c>
       <c r="D132" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3340,7 +3308,7 @@
         <v>344</v>
       </c>
       <c r="D133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3354,7 +3322,7 @@
         <v>344</v>
       </c>
       <c r="D134" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3368,7 +3336,7 @@
         <v>344</v>
       </c>
       <c r="D135" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,7 +3350,7 @@
         <v>344</v>
       </c>
       <c r="D136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,7 +3364,7 @@
         <v>344</v>
       </c>
       <c r="D137" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3410,7 +3378,7 @@
         <v>344</v>
       </c>
       <c r="D138" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3424,7 +3392,7 @@
         <v>344</v>
       </c>
       <c r="D139" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3438,7 +3406,7 @@
         <v>344</v>
       </c>
       <c r="D140" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3452,7 +3420,7 @@
         <v>344</v>
       </c>
       <c r="D141" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3466,7 +3434,7 @@
         <v>344</v>
       </c>
       <c r="D142" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3480,7 +3448,7 @@
         <v>344</v>
       </c>
       <c r="D143" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3494,7 +3462,7 @@
         <v>344</v>
       </c>
       <c r="D144" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3508,7 +3476,7 @@
         <v>344</v>
       </c>
       <c r="D145" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3522,7 +3490,7 @@
         <v>344</v>
       </c>
       <c r="D146" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3536,7 +3504,7 @@
         <v>344</v>
       </c>
       <c r="D147" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3550,7 +3518,7 @@
         <v>344</v>
       </c>
       <c r="D148" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3564,7 +3532,7 @@
         <v>344</v>
       </c>
       <c r="D149" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3578,7 +3546,7 @@
         <v>344</v>
       </c>
       <c r="D150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3592,7 +3560,7 @@
         <v>344</v>
       </c>
       <c r="D151" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3606,7 +3574,7 @@
         <v>344</v>
       </c>
       <c r="D152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3620,7 +3588,7 @@
         <v>344</v>
       </c>
       <c r="D153" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3634,7 +3602,7 @@
         <v>344</v>
       </c>
       <c r="D154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3648,7 +3616,7 @@
         <v>344</v>
       </c>
       <c r="D155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3662,7 +3630,7 @@
         <v>344</v>
       </c>
       <c r="D156" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3676,7 +3644,7 @@
         <v>344</v>
       </c>
       <c r="D157" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,7 +3658,7 @@
         <v>344</v>
       </c>
       <c r="D158" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3704,7 +3672,7 @@
         <v>344</v>
       </c>
       <c r="D159" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3718,10 +3686,10 @@
         <v>344</v>
       </c>
       <c r="D160" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -3732,10 +3700,10 @@
         <v>344</v>
       </c>
       <c r="D161" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -3746,10 +3714,10 @@
         <v>344</v>
       </c>
       <c r="D162" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -3760,10 +3728,10 @@
         <v>344</v>
       </c>
       <c r="D163" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -3774,10 +3742,10 @@
         <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -3788,10 +3756,10 @@
         <v>344</v>
       </c>
       <c r="D165" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -3802,10 +3770,10 @@
         <v>344</v>
       </c>
       <c r="D166" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -3816,10 +3784,10 @@
         <v>344</v>
       </c>
       <c r="D167" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -3830,10 +3798,10 @@
         <v>344</v>
       </c>
       <c r="D168" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3844,10 +3812,10 @@
         <v>344</v>
       </c>
       <c r="D169" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3858,10 +3826,10 @@
         <v>344</v>
       </c>
       <c r="D170" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -3872,10 +3840,10 @@
         <v>344</v>
       </c>
       <c r="D171" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -3886,10 +3854,10 @@
         <v>344</v>
       </c>
       <c r="D172" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -3900,13 +3868,10 @@
         <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>350</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -3917,10 +3882,10 @@
         <v>344</v>
       </c>
       <c r="D174" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -3931,10 +3896,10 @@
         <v>344</v>
       </c>
       <c r="D175" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -3945,10 +3910,10 @@
         <v>344</v>
       </c>
       <c r="D176" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -3959,10 +3924,10 @@
         <v>344</v>
       </c>
       <c r="D177" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -3973,13 +3938,10 @@
         <v>344</v>
       </c>
       <c r="D178" t="s">
-        <v>350</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -3990,10 +3952,10 @@
         <v>344</v>
       </c>
       <c r="D179" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -4004,10 +3966,10 @@
         <v>344</v>
       </c>
       <c r="D180" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -4018,10 +3980,10 @@
         <v>344</v>
       </c>
       <c r="D181" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -4032,10 +3994,10 @@
         <v>344</v>
       </c>
       <c r="D182" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -4046,13 +4008,10 @@
         <v>344</v>
       </c>
       <c r="D183" t="s">
-        <v>350</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -4063,10 +4022,10 @@
         <v>344</v>
       </c>
       <c r="D184" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -4077,10 +4036,10 @@
         <v>344</v>
       </c>
       <c r="D185" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -4091,10 +4050,10 @@
         <v>344</v>
       </c>
       <c r="D186" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -4105,10 +4064,10 @@
         <v>344</v>
       </c>
       <c r="D187" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -4119,10 +4078,10 @@
         <v>344</v>
       </c>
       <c r="D188" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -4133,10 +4092,10 @@
         <v>344</v>
       </c>
       <c r="D189" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -4147,10 +4106,10 @@
         <v>344</v>
       </c>
       <c r="D190" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -4161,10 +4120,10 @@
         <v>344</v>
       </c>
       <c r="D191" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -4175,10 +4134,10 @@
         <v>344</v>
       </c>
       <c r="D192" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -4189,10 +4148,10 @@
         <v>344</v>
       </c>
       <c r="D193" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -4203,10 +4162,10 @@
         <v>344</v>
       </c>
       <c r="D194" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -4217,10 +4176,10 @@
         <v>344</v>
       </c>
       <c r="D195" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -4231,10 +4190,10 @@
         <v>344</v>
       </c>
       <c r="D196" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -4245,10 +4204,10 @@
         <v>344</v>
       </c>
       <c r="D197" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -4259,10 +4218,10 @@
         <v>344</v>
       </c>
       <c r="D198" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -4273,13 +4232,10 @@
         <v>344</v>
       </c>
       <c r="D199" t="s">
-        <v>350</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -4290,10 +4246,10 @@
         <v>344</v>
       </c>
       <c r="D200" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -4304,10 +4260,10 @@
         <v>345</v>
       </c>
       <c r="D201" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -4318,10 +4274,10 @@
         <v>345</v>
       </c>
       <c r="D202" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -4332,10 +4288,10 @@
         <v>345</v>
       </c>
       <c r="D203" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -4346,10 +4302,10 @@
         <v>345</v>
       </c>
       <c r="D204" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -4360,10 +4316,10 @@
         <v>345</v>
       </c>
       <c r="D205" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -4374,10 +4330,10 @@
         <v>345</v>
       </c>
       <c r="D206" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -4388,10 +4344,10 @@
         <v>345</v>
       </c>
       <c r="D207" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -4402,7 +4358,7 @@
         <v>345</v>
       </c>
       <c r="D208" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4416,7 +4372,7 @@
         <v>345</v>
       </c>
       <c r="D209" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4430,7 +4386,7 @@
         <v>345</v>
       </c>
       <c r="D210" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4444,7 +4400,7 @@
         <v>345</v>
       </c>
       <c r="D211" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,7 +4414,7 @@
         <v>345</v>
       </c>
       <c r="D212" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,7 +4428,7 @@
         <v>344</v>
       </c>
       <c r="D213" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,7 +4442,7 @@
         <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,7 +4456,7 @@
         <v>344</v>
       </c>
       <c r="D215" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,7 +4470,7 @@
         <v>344</v>
       </c>
       <c r="D216" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4528,7 +4484,7 @@
         <v>344</v>
       </c>
       <c r="D217" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4542,7 +4498,7 @@
         <v>344</v>
       </c>
       <c r="D218" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4556,7 +4512,7 @@
         <v>344</v>
       </c>
       <c r="D219" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4570,7 +4526,7 @@
         <v>344</v>
       </c>
       <c r="D220" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4584,7 +4540,7 @@
         <v>344</v>
       </c>
       <c r="D221" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4598,7 +4554,7 @@
         <v>344</v>
       </c>
       <c r="D222" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,7 +4568,7 @@
         <v>344</v>
       </c>
       <c r="D223" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,7 +4582,7 @@
         <v>344</v>
       </c>
       <c r="D224" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4640,7 +4596,7 @@
         <v>344</v>
       </c>
       <c r="D225" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4654,7 +4610,7 @@
         <v>344</v>
       </c>
       <c r="D226" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,7 +4624,7 @@
         <v>344</v>
       </c>
       <c r="D227" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,7 +4638,7 @@
         <v>344</v>
       </c>
       <c r="D228" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,7 +4652,7 @@
         <v>344</v>
       </c>
       <c r="D229" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4710,7 +4666,7 @@
         <v>344</v>
       </c>
       <c r="D230" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,7 +4680,7 @@
         <v>344</v>
       </c>
       <c r="D231" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,7 +4694,7 @@
         <v>344</v>
       </c>
       <c r="D232" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4752,7 +4708,7 @@
         <v>344</v>
       </c>
       <c r="D233" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4766,7 +4722,7 @@
         <v>344</v>
       </c>
       <c r="D234" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4780,7 +4736,7 @@
         <v>344</v>
       </c>
       <c r="D235" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,7 +4750,7 @@
         <v>344</v>
       </c>
       <c r="D236" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4808,7 +4764,7 @@
         <v>344</v>
       </c>
       <c r="D237" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4822,7 +4778,7 @@
         <v>344</v>
       </c>
       <c r="D238" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,7 +4792,7 @@
         <v>344</v>
       </c>
       <c r="D239" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,7 +4806,7 @@
         <v>344</v>
       </c>
       <c r="D240" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4864,7 +4820,7 @@
         <v>344</v>
       </c>
       <c r="D241" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4878,7 +4834,7 @@
         <v>344</v>
       </c>
       <c r="D242" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,7 +4848,7 @@
         <v>344</v>
       </c>
       <c r="D243" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4906,7 +4862,7 @@
         <v>344</v>
       </c>
       <c r="D244" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4920,7 +4876,7 @@
         <v>344</v>
       </c>
       <c r="D245" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,7 +4890,7 @@
         <v>344</v>
       </c>
       <c r="D246" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4948,7 +4904,7 @@
         <v>344</v>
       </c>
       <c r="D247" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,7 +4918,7 @@
         <v>344</v>
       </c>
       <c r="D248" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4976,7 +4932,7 @@
         <v>344</v>
       </c>
       <c r="D249" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4990,7 +4946,7 @@
         <v>344</v>
       </c>
       <c r="D250" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5004,7 +4960,7 @@
         <v>344</v>
       </c>
       <c r="D251" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,7 +4974,7 @@
         <v>344</v>
       </c>
       <c r="D252" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5032,7 +4988,7 @@
         <v>344</v>
       </c>
       <c r="D253" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5046,7 +5002,7 @@
         <v>344</v>
       </c>
       <c r="D254" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5060,7 +5016,7 @@
         <v>344</v>
       </c>
       <c r="D255" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,7 +5030,7 @@
         <v>344</v>
       </c>
       <c r="D256" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,7 +5044,7 @@
         <v>344</v>
       </c>
       <c r="D257" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5102,7 +5058,7 @@
         <v>344</v>
       </c>
       <c r="D258" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5116,7 +5072,7 @@
         <v>344</v>
       </c>
       <c r="D259" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5130,7 +5086,7 @@
         <v>344</v>
       </c>
       <c r="D260" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5144,7 +5100,7 @@
         <v>344</v>
       </c>
       <c r="D261" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5158,7 +5114,7 @@
         <v>344</v>
       </c>
       <c r="D262" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5172,7 +5128,7 @@
         <v>344</v>
       </c>
       <c r="D263" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5186,7 +5142,7 @@
         <v>344</v>
       </c>
       <c r="D264" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5200,7 +5156,7 @@
         <v>344</v>
       </c>
       <c r="D265" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5214,7 +5170,7 @@
         <v>344</v>
       </c>
       <c r="D266" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5228,7 +5184,7 @@
         <v>344</v>
       </c>
       <c r="D267" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5242,7 +5198,7 @@
         <v>344</v>
       </c>
       <c r="D268" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5256,7 +5212,7 @@
         <v>344</v>
       </c>
       <c r="D269" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,7 +5226,7 @@
         <v>344</v>
       </c>
       <c r="D270" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5284,7 +5240,7 @@
         <v>344</v>
       </c>
       <c r="D271" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5298,7 +5254,7 @@
         <v>344</v>
       </c>
       <c r="D272" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5312,7 +5268,7 @@
         <v>344</v>
       </c>
       <c r="D273" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,7 +5282,7 @@
         <v>344</v>
       </c>
       <c r="D274" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5340,7 +5296,7 @@
         <v>344</v>
       </c>
       <c r="D275" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5354,7 +5310,7 @@
         <v>344</v>
       </c>
       <c r="D276" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5368,7 +5324,7 @@
         <v>344</v>
       </c>
       <c r="D277" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5382,7 +5338,7 @@
         <v>344</v>
       </c>
       <c r="D278" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,7 +5352,7 @@
         <v>344</v>
       </c>
       <c r="D279" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5410,7 +5366,7 @@
         <v>344</v>
       </c>
       <c r="D280" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,7 +5380,7 @@
         <v>344</v>
       </c>
       <c r="D281" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5438,7 +5394,7 @@
         <v>344</v>
       </c>
       <c r="D282" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5452,7 +5408,7 @@
         <v>345</v>
       </c>
       <c r="D283" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5466,7 +5422,7 @@
         <v>345</v>
       </c>
       <c r="D284" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5480,7 +5436,7 @@
         <v>346</v>
       </c>
       <c r="D285" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5494,7 +5450,7 @@
         <v>346</v>
       </c>
       <c r="D286" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5508,7 +5464,7 @@
         <v>346</v>
       </c>
       <c r="D287" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5522,7 +5478,7 @@
         <v>346</v>
       </c>
       <c r="D288" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5536,7 +5492,7 @@
         <v>346</v>
       </c>
       <c r="D289" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5550,7 +5506,7 @@
         <v>346</v>
       </c>
       <c r="D290" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +5520,7 @@
         <v>346</v>
       </c>
       <c r="D291" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5578,7 +5534,7 @@
         <v>346</v>
       </c>
       <c r="D292" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5592,7 +5548,7 @@
         <v>346</v>
       </c>
       <c r="D293" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5606,7 +5562,7 @@
         <v>346</v>
       </c>
       <c r="D294" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5576,7 @@
         <v>346</v>
       </c>
       <c r="D295" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,7 +5590,7 @@
         <v>346</v>
       </c>
       <c r="D296" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5648,7 +5604,7 @@
         <v>346</v>
       </c>
       <c r="D297" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5662,7 +5618,7 @@
         <v>346</v>
       </c>
       <c r="D298" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5676,7 +5632,7 @@
         <v>346</v>
       </c>
       <c r="D299" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,7 +5646,7 @@
         <v>346</v>
       </c>
       <c r="D300" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,7 +5660,7 @@
         <v>346</v>
       </c>
       <c r="D301" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,7 +5674,7 @@
         <v>346</v>
       </c>
       <c r="D302" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,7 +5688,7 @@
         <v>346</v>
       </c>
       <c r="D303" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,7 +5702,7 @@
         <v>346</v>
       </c>
       <c r="D304" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,7 +5716,7 @@
         <v>346</v>
       </c>
       <c r="D305" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,7 +5730,7 @@
         <v>346</v>
       </c>
       <c r="D306" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,7 +5744,7 @@
         <v>346</v>
       </c>
       <c r="D307" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,7 +5758,7 @@
         <v>346</v>
       </c>
       <c r="D308" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,7 +5772,7 @@
         <v>346</v>
       </c>
       <c r="D309" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5830,7 +5786,7 @@
         <v>346</v>
       </c>
       <c r="D310" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,7 +5800,7 @@
         <v>346</v>
       </c>
       <c r="D311" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,7 +5814,7 @@
         <v>346</v>
       </c>
       <c r="D312" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,7 +5828,7 @@
         <v>346</v>
       </c>
       <c r="D313" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,7 +5842,7 @@
         <v>346</v>
       </c>
       <c r="D314" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5900,7 +5856,7 @@
         <v>346</v>
       </c>
       <c r="D315" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,7 +5870,7 @@
         <v>346</v>
       </c>
       <c r="D316" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5928,7 +5884,7 @@
         <v>346</v>
       </c>
       <c r="D317" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,7 +5898,7 @@
         <v>346</v>
       </c>
       <c r="D318" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5956,7 +5912,7 @@
         <v>346</v>
       </c>
       <c r="D319" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,7 +5926,7 @@
         <v>346</v>
       </c>
       <c r="D320" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5984,7 +5940,7 @@
         <v>346</v>
       </c>
       <c r="D321" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,7 +5954,7 @@
         <v>346</v>
       </c>
       <c r="D322" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,7 +5968,7 @@
         <v>346</v>
       </c>
       <c r="D323" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6026,7 +5982,7 @@
         <v>346</v>
       </c>
       <c r="D324" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6040,7 +5996,7 @@
         <v>346</v>
       </c>
       <c r="D325" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,7 +6010,7 @@
         <v>346</v>
       </c>
       <c r="D326" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,7 +6024,7 @@
         <v>346</v>
       </c>
       <c r="D327" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,7 +6038,7 @@
         <v>346</v>
       </c>
       <c r="D328" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,7 +6052,7 @@
         <v>346</v>
       </c>
       <c r="D329" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6110,7 +6066,7 @@
         <v>346</v>
       </c>
       <c r="D330" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6124,7 +6080,7 @@
         <v>346</v>
       </c>
       <c r="D331" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6138,7 +6094,7 @@
         <v>346</v>
       </c>
       <c r="D332" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6152,7 +6108,7 @@
         <v>346</v>
       </c>
       <c r="D333" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,7 +6122,7 @@
         <v>346</v>
       </c>
       <c r="D334" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6180,7 +6136,7 @@
         <v>346</v>
       </c>
       <c r="D335" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6194,7 +6150,7 @@
         <v>346</v>
       </c>
       <c r="D336" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6208,7 +6164,7 @@
         <v>346</v>
       </c>
       <c r="D337" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,7 +6178,7 @@
         <v>346</v>
       </c>
       <c r="D338" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6236,7 +6192,7 @@
         <v>346</v>
       </c>
       <c r="D339" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,7 +6206,7 @@
         <v>346</v>
       </c>
       <c r="D340" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Desktop\Colchonqn\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flia aliamdri\OneDrive\Desktop\colchonespremium\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="356">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1074,6 +1074,24 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NzjeCkw.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pTv3BgX.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Hvm9q5u.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gK6TFQ1.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fZ2rJGD.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1099,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1144,7 +1162,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1437,10 +1455,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D340"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1467,7 @@
     <col min="2" max="2" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="D1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,8 +1497,11 @@
       <c r="D2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1490,8 +1514,11 @@
       <c r="D3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1504,8 +1531,11 @@
       <c r="D4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1549,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1563,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1577,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1561,7 +1591,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1605,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1619,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1633,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1647,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1631,7 +1661,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1645,7 +1675,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1689,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3689,7 +3719,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -3703,7 +3733,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -3717,7 +3747,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -3731,7 +3761,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -3745,7 +3775,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -3759,7 +3789,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -3773,7 +3803,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -3787,7 +3817,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -3801,7 +3831,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3815,7 +3845,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3829,7 +3859,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -3843,7 +3873,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -3857,7 +3887,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -3870,8 +3900,11 @@
       <c r="D173" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -3885,7 +3918,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -3899,7 +3932,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -3913,7 +3946,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -3927,7 +3960,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -3940,8 +3973,11 @@
       <c r="D178" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -3969,7 +4005,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -3983,7 +4019,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -3997,7 +4033,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -4010,8 +4046,11 @@
       <c r="D183" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -4025,7 +4064,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -4039,7 +4078,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -4053,7 +4092,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -4067,7 +4106,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -4081,7 +4120,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -4095,7 +4134,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -4109,7 +4148,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -4123,7 +4162,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -4137,7 +4176,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -4151,7 +4190,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -4165,7 +4204,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -4179,7 +4218,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -4193,7 +4232,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -4207,7 +4246,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -4221,7 +4260,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -4234,8 +4273,11 @@
       <c r="D199" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -4249,7 +4291,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -4263,7 +4305,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -4277,7 +4319,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -4291,7 +4333,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -4305,7 +4347,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -4319,7 +4361,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -4333,7 +4375,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -4347,7 +4389,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>

--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flia aliamdri\OneDrive\Desktop\colchonespremium\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="358">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1092,6 +1092,12 @@
   </si>
   <si>
     <t>https://i.imgur.com/fZ2rJGD.jpeg</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>INDUCOL</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1162,7 +1168,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1455,4799 +1461,5820 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>341</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="4">
         <v>11234</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>342</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>349</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="4">
         <v>12426</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>342</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>349</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="4">
         <v>14370</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>342</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>349</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="4">
         <v>11869</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>342</v>
       </c>
-      <c r="D5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="4">
         <v>12726</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>342</v>
       </c>
-      <c r="D6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="4">
         <v>14441</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>342</v>
       </c>
-      <c r="D7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="4">
         <v>16157</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>342</v>
       </c>
-      <c r="D8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="4">
         <v>17872</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>342</v>
       </c>
-      <c r="D9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="4">
         <v>23017</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>342</v>
       </c>
-      <c r="D10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="4">
         <v>24732</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>342</v>
       </c>
-      <c r="D11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="4">
         <v>30457</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>342</v>
       </c>
-      <c r="D12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="4">
         <v>34593</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="D13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="4">
         <v>38729</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>342</v>
       </c>
-      <c r="D14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="4">
         <v>8180</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>342</v>
       </c>
-      <c r="D15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="4">
         <v>8776</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>342</v>
       </c>
-      <c r="D16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="4">
         <v>9969</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>342</v>
       </c>
-      <c r="D17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="4">
         <v>11161</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>342</v>
       </c>
-      <c r="D18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="4">
         <v>12353</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>342</v>
       </c>
-      <c r="D19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="4">
         <v>15931</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>342</v>
       </c>
-      <c r="D20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="4">
         <v>17123</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>342</v>
       </c>
-      <c r="D21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="4">
         <v>17574</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>343</v>
       </c>
-      <c r="D22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="4">
         <v>114322</v>
       </c>
-      <c r="C23" t="s">
-        <v>344</v>
-      </c>
       <c r="D23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="4">
         <v>114322</v>
       </c>
-      <c r="C24" t="s">
-        <v>344</v>
-      </c>
       <c r="D24" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="4">
         <v>114322</v>
       </c>
-      <c r="C25" t="s">
-        <v>344</v>
-      </c>
       <c r="D25" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="4">
         <v>127371</v>
       </c>
-      <c r="C26" t="s">
-        <v>344</v>
-      </c>
       <c r="D26" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="4">
         <v>127452</v>
       </c>
-      <c r="C27" t="s">
-        <v>344</v>
-      </c>
       <c r="D27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="4">
         <v>142059</v>
       </c>
-      <c r="C28" t="s">
-        <v>344</v>
-      </c>
       <c r="D28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="4">
         <v>140822</v>
       </c>
-      <c r="C29" t="s">
-        <v>344</v>
-      </c>
       <c r="D29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="4">
         <v>140822</v>
       </c>
-      <c r="C30" t="s">
-        <v>344</v>
-      </c>
       <c r="D30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="4">
         <v>140822</v>
       </c>
-      <c r="C31" t="s">
-        <v>344</v>
-      </c>
       <c r="D31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="4">
         <v>156986</v>
       </c>
-      <c r="C32" t="s">
-        <v>344</v>
-      </c>
       <c r="D32" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" s="4">
         <v>180452</v>
       </c>
-      <c r="C33" t="s">
-        <v>344</v>
-      </c>
       <c r="D33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="4">
         <v>201291</v>
       </c>
-      <c r="C34" t="s">
-        <v>344</v>
-      </c>
       <c r="D34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="4">
         <v>193821</v>
       </c>
-      <c r="C35" t="s">
-        <v>344</v>
-      </c>
       <c r="D35" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C36" s="4">
         <v>216218</v>
       </c>
-      <c r="C36" t="s">
-        <v>344</v>
-      </c>
       <c r="D36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" s="4">
         <v>230986</v>
       </c>
-      <c r="C37" t="s">
-        <v>344</v>
-      </c>
       <c r="D37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38" s="4">
         <v>278628</v>
       </c>
-      <c r="C38" t="s">
-        <v>344</v>
-      </c>
       <c r="D38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="4">
         <v>319506</v>
       </c>
-      <c r="C39" t="s">
-        <v>344</v>
-      </c>
       <c r="D39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C40" s="4">
         <v>346374</v>
       </c>
-      <c r="C40" t="s">
-        <v>344</v>
-      </c>
       <c r="D40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="4">
         <v>357156</v>
       </c>
-      <c r="C41" t="s">
-        <v>344</v>
-      </c>
       <c r="D41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="4">
         <v>455107</v>
       </c>
-      <c r="C42" t="s">
-        <v>344</v>
-      </c>
       <c r="D42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" s="4">
         <v>468491</v>
       </c>
-      <c r="C43" t="s">
-        <v>344</v>
-      </c>
       <c r="D43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C44" s="4">
         <v>468491</v>
       </c>
-      <c r="C44" t="s">
-        <v>344</v>
-      </c>
       <c r="D44" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E44" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="4">
         <v>535065</v>
       </c>
-      <c r="C45" t="s">
-        <v>344</v>
-      </c>
       <c r="D45" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" s="4">
         <v>553611</v>
       </c>
-      <c r="C46" t="s">
-        <v>344</v>
-      </c>
       <c r="D46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="4">
         <v>664987</v>
       </c>
-      <c r="C47" t="s">
-        <v>344</v>
-      </c>
       <c r="D47" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C48" s="4">
         <v>695237</v>
       </c>
-      <c r="C48" t="s">
-        <v>344</v>
-      </c>
       <c r="D48" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="4">
         <v>74607</v>
       </c>
-      <c r="C49" t="s">
-        <v>344</v>
-      </c>
       <c r="D49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C50" s="4">
         <v>94096</v>
       </c>
-      <c r="C50" t="s">
-        <v>344</v>
-      </c>
       <c r="D50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="4">
         <v>105063</v>
       </c>
-      <c r="C51" t="s">
-        <v>344</v>
-      </c>
       <c r="D51" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" s="4">
         <v>116030</v>
       </c>
-      <c r="C52" t="s">
-        <v>344</v>
-      </c>
       <c r="D52" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C53" s="4">
         <v>155974</v>
       </c>
-      <c r="C53" t="s">
-        <v>344</v>
-      </c>
       <c r="D53" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" s="4">
         <v>159898</v>
       </c>
-      <c r="C54" t="s">
-        <v>344</v>
-      </c>
       <c r="D54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C55" s="4">
         <v>33901</v>
       </c>
-      <c r="C55" t="s">
-        <v>344</v>
-      </c>
       <c r="D55" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="4">
         <v>35168</v>
       </c>
-      <c r="C56" t="s">
-        <v>344</v>
-      </c>
       <c r="D56" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="4">
         <v>36339</v>
       </c>
-      <c r="C57" t="s">
-        <v>344</v>
-      </c>
       <c r="D57" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" s="4">
         <v>33333</v>
       </c>
-      <c r="C58" t="s">
-        <v>344</v>
-      </c>
       <c r="D58" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" s="4">
         <v>46969</v>
       </c>
-      <c r="C59" t="s">
-        <v>344</v>
-      </c>
       <c r="D59" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C60" s="4">
         <v>42036</v>
       </c>
-      <c r="C60" t="s">
-        <v>344</v>
-      </c>
       <c r="D60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="4">
         <v>55374</v>
       </c>
-      <c r="C61" t="s">
-        <v>344</v>
-      </c>
       <c r="D61" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" s="4">
         <v>51058</v>
       </c>
-      <c r="C62" t="s">
-        <v>344</v>
-      </c>
       <c r="D62" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C63" s="4">
         <v>51865</v>
       </c>
-      <c r="C63" t="s">
-        <v>344</v>
-      </c>
       <c r="D63" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="4">
         <v>46730</v>
       </c>
-      <c r="C64" t="s">
-        <v>344</v>
-      </c>
       <c r="D64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="4">
         <v>31613</v>
       </c>
-      <c r="C65" t="s">
-        <v>344</v>
-      </c>
       <c r="D65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="4">
         <v>42378</v>
       </c>
-      <c r="C66" t="s">
-        <v>344</v>
-      </c>
       <c r="D66" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E66" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C67" s="4">
         <v>30543</v>
       </c>
-      <c r="C67" t="s">
-        <v>344</v>
-      </c>
       <c r="D67" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="4">
         <v>65818</v>
       </c>
-      <c r="C68" t="s">
-        <v>344</v>
-      </c>
       <c r="D68" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="4">
         <v>46051</v>
       </c>
-      <c r="C69" t="s">
-        <v>344</v>
-      </c>
       <c r="D69" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E69" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C70" s="4">
         <v>118829</v>
       </c>
-      <c r="C70" t="s">
-        <v>344</v>
-      </c>
       <c r="D70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E70" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C71" s="4">
         <v>97430</v>
       </c>
-      <c r="C71" t="s">
-        <v>344</v>
-      </c>
       <c r="D71" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E71" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="4">
         <v>172073</v>
       </c>
-      <c r="C72" t="s">
-        <v>344</v>
-      </c>
       <c r="D72" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" s="4">
         <v>192124</v>
       </c>
-      <c r="C73" t="s">
-        <v>344</v>
-      </c>
       <c r="D73" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E73" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="4">
         <v>212409</v>
       </c>
-      <c r="C74" t="s">
-        <v>344</v>
-      </c>
       <c r="D74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" s="4">
         <v>283611</v>
       </c>
-      <c r="C75" t="s">
-        <v>344</v>
-      </c>
       <c r="D75" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" s="4">
         <v>281982</v>
       </c>
-      <c r="C76" t="s">
-        <v>344</v>
-      </c>
       <c r="D76" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E76" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="4">
         <v>293081</v>
       </c>
-      <c r="C77" t="s">
-        <v>344</v>
-      </c>
       <c r="D77" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" s="4">
         <v>170633</v>
       </c>
-      <c r="C78" t="s">
-        <v>344</v>
-      </c>
       <c r="D78" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C79" s="4">
         <v>199388</v>
       </c>
-      <c r="C79" t="s">
-        <v>344</v>
-      </c>
       <c r="D79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E79" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" s="4">
         <v>190309</v>
       </c>
-      <c r="C80" t="s">
-        <v>344</v>
-      </c>
       <c r="D80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E80" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C81" s="4">
         <v>222529</v>
       </c>
-      <c r="C81" t="s">
-        <v>344</v>
-      </c>
       <c r="D81" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E81" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" s="4">
         <v>210250</v>
       </c>
-      <c r="C82" t="s">
-        <v>344</v>
-      </c>
       <c r="D82" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E82" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C83" s="4">
         <v>245935</v>
       </c>
-      <c r="C83" t="s">
-        <v>344</v>
-      </c>
       <c r="D83" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E83" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C84" s="4">
         <v>217893</v>
       </c>
-      <c r="C84" t="s">
-        <v>344</v>
-      </c>
       <c r="D84" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C85" s="4">
         <v>255423</v>
       </c>
-      <c r="C85" t="s">
-        <v>344</v>
-      </c>
       <c r="D85" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E85" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="4">
         <v>269543</v>
       </c>
-      <c r="C86" t="s">
-        <v>344</v>
-      </c>
       <c r="D86" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E86" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" s="4">
         <v>315623</v>
       </c>
-      <c r="C87" t="s">
-        <v>344</v>
-      </c>
       <c r="D87" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C88" s="4">
         <v>289484</v>
       </c>
-      <c r="C88" t="s">
-        <v>344</v>
-      </c>
       <c r="D88" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" s="4">
         <v>339029</v>
       </c>
-      <c r="C89" t="s">
-        <v>344</v>
-      </c>
       <c r="D89" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E89" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" s="4">
         <v>309248</v>
       </c>
-      <c r="C90" t="s">
-        <v>344</v>
-      </c>
       <c r="D90" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C91" s="4">
         <v>362258</v>
       </c>
-      <c r="C91" t="s">
-        <v>344</v>
-      </c>
       <c r="D91" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" s="4">
         <v>341052</v>
       </c>
-      <c r="C92" t="s">
-        <v>344</v>
-      </c>
       <c r="D92" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E92" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" s="4">
         <v>400452</v>
       </c>
-      <c r="C93" t="s">
-        <v>344</v>
-      </c>
       <c r="D93" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E93" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" s="4">
         <v>212638</v>
       </c>
-      <c r="C94" t="s">
-        <v>344</v>
-      </c>
       <c r="D94" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E94" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C95" s="4">
         <v>237447</v>
       </c>
-      <c r="C95" t="s">
-        <v>344</v>
-      </c>
       <c r="D95" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96" s="4">
         <v>262518</v>
       </c>
-      <c r="C96" t="s">
-        <v>344</v>
-      </c>
       <c r="D96" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E96" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" s="4">
         <v>272988</v>
       </c>
-      <c r="C97" t="s">
-        <v>344</v>
-      </c>
       <c r="D97" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C98" s="4">
         <v>337208</v>
       </c>
-      <c r="C98" t="s">
-        <v>344</v>
-      </c>
       <c r="D98" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E98" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C99" s="4">
         <v>362279</v>
       </c>
-      <c r="C99" t="s">
-        <v>344</v>
-      </c>
       <c r="D99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E99" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" s="4">
         <v>387176</v>
       </c>
-      <c r="C100" t="s">
-        <v>344</v>
-      </c>
       <c r="D100" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C101" s="4">
         <v>428610</v>
       </c>
-      <c r="C101" t="s">
-        <v>344</v>
-      </c>
       <c r="D101" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E101" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" s="4">
         <v>480309</v>
       </c>
-      <c r="C102" t="s">
-        <v>344</v>
-      </c>
       <c r="D102" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E102" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C103" s="4">
         <v>531398</v>
       </c>
-      <c r="C103" t="s">
-        <v>344</v>
-      </c>
       <c r="D103" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E103" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C104" s="4">
         <v>253222</v>
       </c>
-      <c r="C104" t="s">
-        <v>344</v>
-      </c>
       <c r="D104" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E104" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C105" s="4">
         <v>285215</v>
       </c>
-      <c r="C105" t="s">
-        <v>344</v>
-      </c>
       <c r="D105" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E105" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" s="4">
         <v>312121</v>
       </c>
-      <c r="C106" t="s">
-        <v>344</v>
-      </c>
       <c r="D106" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E106" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C107" s="4">
         <v>322869</v>
       </c>
-      <c r="C107" t="s">
-        <v>344</v>
-      </c>
       <c r="D107" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E107" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" s="4">
         <v>416209</v>
       </c>
-      <c r="C108" t="s">
-        <v>344</v>
-      </c>
       <c r="D108" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E108" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C109" s="4">
         <v>423848</v>
       </c>
-      <c r="C109" t="s">
-        <v>344</v>
-      </c>
       <c r="D109" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E109" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="4">
         <v>488697</v>
       </c>
-      <c r="C110" t="s">
-        <v>344</v>
-      </c>
       <c r="D110" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E110" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C111" s="4">
         <v>501173</v>
       </c>
-      <c r="C111" t="s">
-        <v>344</v>
-      </c>
       <c r="D111" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E111" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C112" s="4">
         <v>570082</v>
       </c>
-      <c r="C112" t="s">
-        <v>344</v>
-      </c>
       <c r="D112" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E112" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C113" s="4">
         <v>622649</v>
       </c>
-      <c r="C113" t="s">
-        <v>344</v>
-      </c>
       <c r="D113" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="4">
         <v>177811</v>
       </c>
-      <c r="C114" t="s">
-        <v>344</v>
-      </c>
       <c r="D114" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E114" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" s="4">
         <v>202415</v>
       </c>
-      <c r="C115" t="s">
-        <v>344</v>
-      </c>
       <c r="D115" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E115" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" s="4">
         <v>220998</v>
       </c>
-      <c r="C116" t="s">
-        <v>344</v>
-      </c>
       <c r="D116" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E116" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C117" s="4">
         <v>221059</v>
       </c>
-      <c r="C117" t="s">
-        <v>344</v>
-      </c>
       <c r="D117" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E117" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="4">
         <v>284045</v>
       </c>
-      <c r="C118" t="s">
-        <v>344</v>
-      </c>
       <c r="D118" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" s="4">
         <v>280775</v>
       </c>
-      <c r="C119" t="s">
-        <v>344</v>
-      </c>
       <c r="D119" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E119" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" s="4">
         <v>324844</v>
       </c>
-      <c r="C120" t="s">
-        <v>344</v>
-      </c>
       <c r="D120" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E120" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="4">
         <v>326951</v>
       </c>
-      <c r="C121" t="s">
-        <v>344</v>
-      </c>
       <c r="D121" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" s="4">
         <v>363922</v>
       </c>
-      <c r="C122" t="s">
-        <v>344</v>
-      </c>
       <c r="D122" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E122" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" s="4">
         <v>398113</v>
       </c>
-      <c r="C123" t="s">
-        <v>344</v>
-      </c>
       <c r="D123" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="4">
         <v>207802</v>
       </c>
-      <c r="C124" t="s">
-        <v>344</v>
-      </c>
       <c r="D124" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C125" s="4">
         <v>246716</v>
       </c>
-      <c r="C125" t="s">
-        <v>344</v>
-      </c>
       <c r="D125" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E125" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C126" s="4">
         <v>253827</v>
       </c>
-      <c r="C126" t="s">
-        <v>344</v>
-      </c>
       <c r="D126" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E126" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="4">
         <v>303162</v>
       </c>
-      <c r="C127" t="s">
-        <v>344</v>
-      </c>
       <c r="D127" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E127" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C128" s="4">
         <v>263986</v>
       </c>
-      <c r="C128" t="s">
-        <v>344</v>
-      </c>
       <c r="D128" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E128" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="4">
         <v>314102</v>
       </c>
-      <c r="C129" t="s">
-        <v>344</v>
-      </c>
       <c r="D129" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E129" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C130" s="4">
         <v>266260</v>
       </c>
-      <c r="C130" t="s">
-        <v>344</v>
-      </c>
       <c r="D130" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E130" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" s="4">
         <v>316828</v>
       </c>
-      <c r="C131" t="s">
-        <v>344</v>
-      </c>
       <c r="D131" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E131" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" s="4">
         <v>334385</v>
       </c>
-      <c r="C132" t="s">
-        <v>344</v>
-      </c>
       <c r="D132" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E132" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C133" s="4">
         <v>397643</v>
       </c>
-      <c r="C133" t="s">
-        <v>344</v>
-      </c>
       <c r="D133" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E133" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" s="4">
         <v>344544</v>
       </c>
-      <c r="C134" t="s">
-        <v>344</v>
-      </c>
       <c r="D134" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E134" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C135" s="4">
         <v>408583</v>
       </c>
-      <c r="C135" t="s">
-        <v>344</v>
-      </c>
       <c r="D135" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E135" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C136" s="4">
         <v>393555</v>
       </c>
-      <c r="C136" t="s">
-        <v>344</v>
-      </c>
       <c r="D136" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E136" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" s="4">
         <v>468787</v>
       </c>
-      <c r="C137" t="s">
-        <v>344</v>
-      </c>
       <c r="D137" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E137" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C138" s="4">
         <v>406993</v>
       </c>
-      <c r="C138" t="s">
-        <v>344</v>
-      </c>
       <c r="D138" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E138" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" s="4">
         <v>483678</v>
       </c>
-      <c r="C139" t="s">
-        <v>344</v>
-      </c>
       <c r="D139" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E139" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" s="4">
         <v>499505</v>
       </c>
-      <c r="C140" t="s">
-        <v>344</v>
-      </c>
       <c r="D140" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E140" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C141" s="4">
         <v>597105</v>
       </c>
-      <c r="C141" t="s">
-        <v>344</v>
-      </c>
       <c r="D141" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E141" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142" s="4">
         <v>519064</v>
       </c>
-      <c r="C142" t="s">
-        <v>344</v>
-      </c>
       <c r="D142" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E142" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C143" s="4">
         <v>618300</v>
       </c>
-      <c r="C143" t="s">
-        <v>344</v>
-      </c>
       <c r="D143" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E143" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" s="4">
         <v>283561</v>
       </c>
-      <c r="C144" t="s">
-        <v>344</v>
-      </c>
       <c r="D144" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C145" s="4">
         <v>325136</v>
       </c>
-      <c r="C145" t="s">
-        <v>344</v>
-      </c>
       <c r="D145" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E145" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C146" s="4">
         <v>351893</v>
       </c>
-      <c r="C146" t="s">
-        <v>344</v>
-      </c>
       <c r="D146" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E146" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C147" s="4">
         <v>362030</v>
       </c>
-      <c r="C147" t="s">
-        <v>344</v>
-      </c>
       <c r="D147" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C148" s="4">
         <v>447651</v>
       </c>
-      <c r="C148" t="s">
-        <v>344</v>
-      </c>
       <c r="D148" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E148" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C149" s="4">
         <v>474408</v>
       </c>
-      <c r="C149" t="s">
-        <v>344</v>
-      </c>
       <c r="D149" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E149" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" s="4">
         <v>474408</v>
       </c>
-      <c r="C150" t="s">
-        <v>344</v>
-      </c>
       <c r="D150" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E150" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C151" s="4">
         <v>516889</v>
       </c>
-      <c r="C151" t="s">
-        <v>344</v>
-      </c>
       <c r="D151" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E151" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C152" s="4">
         <v>559032</v>
       </c>
-      <c r="C152" t="s">
-        <v>344</v>
-      </c>
       <c r="D152" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E152" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C153" s="4">
         <v>643214</v>
       </c>
-      <c r="C153" t="s">
-        <v>344</v>
-      </c>
       <c r="D153" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E153" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154" s="4">
         <v>696047</v>
       </c>
-      <c r="C154" t="s">
-        <v>344</v>
-      </c>
       <c r="D154" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E154" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" s="4">
         <v>337735</v>
       </c>
-      <c r="C155" t="s">
-        <v>344</v>
-      </c>
       <c r="D155" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E155" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C156" s="4">
         <v>385733</v>
       </c>
-      <c r="C156" t="s">
-        <v>344</v>
-      </c>
       <c r="D156" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E156" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" s="4">
         <v>418124</v>
       </c>
-      <c r="C157" t="s">
-        <v>344</v>
-      </c>
       <c r="D157" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E157" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C158" s="4">
         <v>428277</v>
       </c>
-      <c r="C158" t="s">
-        <v>344</v>
-      </c>
       <c r="D158" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E158" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C159" s="4">
         <v>530897</v>
       </c>
-      <c r="C159" t="s">
-        <v>344</v>
-      </c>
       <c r="D159" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E159" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C160" s="4">
         <v>563288</v>
       </c>
-      <c r="C160" t="s">
-        <v>344</v>
-      </c>
       <c r="D160" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E160" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C161" s="4">
         <v>563288</v>
       </c>
-      <c r="C161" t="s">
-        <v>344</v>
-      </c>
       <c r="D161" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E161" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C162" s="4">
         <v>611505</v>
       </c>
-      <c r="C162" t="s">
-        <v>344</v>
-      </c>
       <c r="D162" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E162" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" s="4">
         <v>659315</v>
       </c>
-      <c r="C163" t="s">
-        <v>344</v>
-      </c>
       <c r="D163" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E163" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C164" s="4">
         <v>754961</v>
       </c>
-      <c r="C164" t="s">
-        <v>344</v>
-      </c>
       <c r="D164" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E164" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C165" s="4">
         <v>819088</v>
       </c>
-      <c r="C165" t="s">
-        <v>344</v>
-      </c>
       <c r="D165" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E165" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="4">
         <v>144470</v>
       </c>
-      <c r="C166" t="s">
-        <v>344</v>
-      </c>
       <c r="D166" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E166" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C167" s="4">
         <v>159156</v>
       </c>
-      <c r="C167" t="s">
-        <v>344</v>
-      </c>
       <c r="D167" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E167" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C168" s="4">
         <v>147520</v>
       </c>
-      <c r="C168" t="s">
-        <v>344</v>
-      </c>
       <c r="D168" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E168" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C169" s="4">
         <v>162563</v>
       </c>
-      <c r="C169" t="s">
-        <v>344</v>
-      </c>
       <c r="D169" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E169" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C170" s="4">
         <v>160825</v>
       </c>
-      <c r="C170" t="s">
-        <v>344</v>
-      </c>
       <c r="D170" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E170" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C171" s="4">
         <v>177691</v>
       </c>
-      <c r="C171" t="s">
-        <v>344</v>
-      </c>
       <c r="D171" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C172" s="4">
         <v>89949</v>
       </c>
-      <c r="C172" t="s">
-        <v>344</v>
-      </c>
       <c r="D172" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E172" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C173" s="5">
         <v>101052</v>
       </c>
-      <c r="C173" t="s">
-        <v>344</v>
-      </c>
       <c r="D173" t="s">
+        <v>344</v>
+      </c>
+      <c r="E173" t="s">
         <v>349</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C174" s="4">
         <v>126340</v>
       </c>
-      <c r="C174" t="s">
-        <v>344</v>
-      </c>
       <c r="D174" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E174" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" s="4">
         <v>139495</v>
       </c>
-      <c r="C175" t="s">
-        <v>344</v>
-      </c>
       <c r="D175" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C176" s="4">
         <v>178961</v>
       </c>
-      <c r="C176" t="s">
-        <v>344</v>
-      </c>
       <c r="D176" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" s="4">
         <v>192116</v>
       </c>
-      <c r="C177" t="s">
-        <v>344</v>
-      </c>
       <c r="D177" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E177" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="5">
         <v>101179</v>
       </c>
-      <c r="C178" t="s">
-        <v>344</v>
-      </c>
       <c r="D178" t="s">
+        <v>344</v>
+      </c>
+      <c r="E178" t="s">
         <v>349</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" s="4">
         <v>172127</v>
       </c>
-      <c r="C179" t="s">
-        <v>344</v>
-      </c>
       <c r="D179" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E179" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C180" s="4">
         <v>51098</v>
       </c>
-      <c r="C180" t="s">
-        <v>344</v>
-      </c>
       <c r="D180" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C181" s="4">
         <v>57696</v>
       </c>
-      <c r="C181" t="s">
-        <v>344</v>
-      </c>
       <c r="D181" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E181" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" s="4">
         <v>64501</v>
       </c>
-      <c r="C182" t="s">
-        <v>344</v>
-      </c>
       <c r="D182" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C183" s="5">
         <v>71928</v>
       </c>
-      <c r="C183" t="s">
-        <v>344</v>
-      </c>
       <c r="D183" t="s">
+        <v>344</v>
+      </c>
+      <c r="E183" t="s">
         <v>349</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C184" s="4">
         <v>57389</v>
       </c>
-      <c r="C184" t="s">
-        <v>344</v>
-      </c>
       <c r="D184" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E184" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C185" s="4">
         <v>64947</v>
       </c>
-      <c r="C185" t="s">
-        <v>344</v>
-      </c>
       <c r="D185" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E185" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C186" s="4">
         <v>72136</v>
       </c>
-      <c r="C186" t="s">
-        <v>344</v>
-      </c>
       <c r="D186" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E186" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C187" s="4">
         <v>80349</v>
       </c>
-      <c r="C187" t="s">
-        <v>344</v>
-      </c>
       <c r="D187" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E187" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C188" s="4">
         <v>63401</v>
       </c>
-      <c r="C188" t="s">
-        <v>344</v>
-      </c>
       <c r="D188" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E188" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C189" s="4">
         <v>71673</v>
       </c>
-      <c r="C189" t="s">
-        <v>344</v>
-      </c>
       <c r="D189" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E189" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C190" s="4">
         <v>79770</v>
       </c>
-      <c r="C190" t="s">
-        <v>344</v>
-      </c>
       <c r="D190" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E190" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C191" s="4">
         <v>88770</v>
       </c>
-      <c r="C191" t="s">
-        <v>344</v>
-      </c>
       <c r="D191" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E191" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C192" s="4">
         <v>81437</v>
       </c>
-      <c r="C192" t="s">
-        <v>344</v>
-      </c>
       <c r="D192" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E192" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C193" s="4">
         <v>91853</v>
       </c>
-      <c r="C193" t="s">
-        <v>344</v>
-      </c>
       <c r="D193" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E193" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C194" s="4">
         <v>102673</v>
       </c>
-      <c r="C194" t="s">
-        <v>344</v>
-      </c>
       <c r="D194" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E194" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C195" s="4">
         <v>114033</v>
       </c>
-      <c r="C195" t="s">
-        <v>344</v>
-      </c>
       <c r="D195" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E195" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C196" s="4">
         <v>87449</v>
       </c>
-      <c r="C196" t="s">
-        <v>344</v>
-      </c>
       <c r="D196" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E196" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C197" s="4">
         <v>98579</v>
       </c>
-      <c r="C197" t="s">
-        <v>344</v>
-      </c>
       <c r="D197" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E197" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C198" s="4">
         <v>110307</v>
       </c>
-      <c r="C198" t="s">
-        <v>344</v>
-      </c>
       <c r="D198" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E198" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C199" s="5">
         <v>122454</v>
       </c>
-      <c r="C199" t="s">
-        <v>344</v>
-      </c>
       <c r="D199" t="s">
+        <v>344</v>
+      </c>
+      <c r="E199" t="s">
         <v>349</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C200" s="4">
         <v>112747</v>
       </c>
-      <c r="C200" t="s">
-        <v>344</v>
-      </c>
       <c r="D200" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E200" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C201" s="4">
         <v>561093</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>345</v>
       </c>
-      <c r="D201" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C202" s="4">
         <v>624146</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>345</v>
       </c>
-      <c r="D202" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C203" s="4">
         <v>368163</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>345</v>
       </c>
-      <c r="D203" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C204" s="4">
         <v>405591</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>345</v>
       </c>
-      <c r="D204" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C205" s="4">
         <v>440324</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>345</v>
       </c>
-      <c r="D205" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C206" s="4">
         <v>450149</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>345</v>
       </c>
-      <c r="D206" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C207" s="4">
         <v>573178</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>345</v>
       </c>
-      <c r="D207" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C208" s="4">
         <v>585380</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>345</v>
       </c>
-      <c r="D208" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C209" s="4">
         <v>657677</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>345</v>
       </c>
-      <c r="D209" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C210" s="4">
         <v>729273</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>345</v>
       </c>
-      <c r="D210" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C211" s="4">
         <v>809225</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>345</v>
       </c>
-      <c r="D211" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C212" s="4">
         <v>877208</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>345</v>
       </c>
-      <c r="D212" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C213" s="4">
         <v>204699</v>
       </c>
-      <c r="C213" t="s">
-        <v>344</v>
-      </c>
       <c r="D213" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E213" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C214" s="4">
         <v>204699</v>
       </c>
-      <c r="C214" t="s">
-        <v>344</v>
-      </c>
       <c r="D214" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E214" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C215" s="4">
         <v>204699</v>
       </c>
-      <c r="C215" t="s">
-        <v>344</v>
-      </c>
       <c r="D215" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E215" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C216" s="4">
         <v>224160</v>
       </c>
-      <c r="C216" t="s">
-        <v>344</v>
-      </c>
       <c r="D216" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E216" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C217" s="4">
         <v>224160</v>
       </c>
-      <c r="C217" t="s">
-        <v>344</v>
-      </c>
       <c r="D217" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E217" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C218" s="4">
         <v>224160</v>
       </c>
-      <c r="C218" t="s">
-        <v>344</v>
-      </c>
       <c r="D218" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E218" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C219" s="4">
         <v>242513</v>
       </c>
-      <c r="C219" t="s">
-        <v>344</v>
-      </c>
       <c r="D219" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E219" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C220" s="4">
         <v>242513</v>
       </c>
-      <c r="C220" t="s">
-        <v>344</v>
-      </c>
       <c r="D220" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E220" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C221" s="4">
         <v>242513</v>
       </c>
-      <c r="C221" t="s">
-        <v>344</v>
-      </c>
       <c r="D221" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E221" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C222" s="4">
         <v>257903</v>
       </c>
-      <c r="C222" t="s">
-        <v>344</v>
-      </c>
       <c r="D222" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E222" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C223" s="4">
         <v>257903</v>
       </c>
-      <c r="C223" t="s">
-        <v>344</v>
-      </c>
       <c r="D223" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E223" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C224" s="4">
         <v>257903</v>
       </c>
-      <c r="C224" t="s">
-        <v>344</v>
-      </c>
       <c r="D224" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E224" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C225" s="4">
         <v>307118</v>
       </c>
-      <c r="C225" t="s">
-        <v>344</v>
-      </c>
       <c r="D225" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E225" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C226" s="4">
         <v>307118</v>
       </c>
-      <c r="C226" t="s">
-        <v>344</v>
-      </c>
       <c r="D226" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E226" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C227" s="4">
         <v>307118</v>
       </c>
-      <c r="C227" t="s">
-        <v>344</v>
-      </c>
       <c r="D227" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E227" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C228" s="4">
         <v>322649</v>
       </c>
-      <c r="C228" t="s">
-        <v>344</v>
-      </c>
       <c r="D228" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E228" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C229" s="4">
         <v>322649</v>
       </c>
-      <c r="C229" t="s">
-        <v>344</v>
-      </c>
       <c r="D229" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E229" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C230" s="4">
         <v>322649</v>
       </c>
-      <c r="C230" t="s">
-        <v>344</v>
-      </c>
       <c r="D230" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E230" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C231" s="4">
         <v>348853</v>
       </c>
-      <c r="C231" t="s">
-        <v>344</v>
-      </c>
       <c r="D231" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E231" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C232" s="4">
         <v>348853</v>
       </c>
-      <c r="C232" t="s">
-        <v>344</v>
-      </c>
       <c r="D232" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E232" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C233" s="4">
         <v>348853</v>
       </c>
-      <c r="C233" t="s">
-        <v>344</v>
-      </c>
       <c r="D233" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E233" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C234" s="4">
         <v>375954</v>
       </c>
-      <c r="C234" t="s">
-        <v>344</v>
-      </c>
       <c r="D234" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E234" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C235" s="4">
         <v>375954</v>
       </c>
-      <c r="C235" t="s">
-        <v>344</v>
-      </c>
       <c r="D235" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E235" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C236" s="4">
         <v>375954</v>
       </c>
-      <c r="C236" t="s">
-        <v>344</v>
-      </c>
       <c r="D236" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E236" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C237" s="4">
         <v>189228</v>
       </c>
-      <c r="C237" t="s">
-        <v>344</v>
-      </c>
       <c r="D237" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E237" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C238" s="4">
         <v>207742</v>
       </c>
-      <c r="C238" t="s">
-        <v>344</v>
-      </c>
       <c r="D238" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E238" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C239" s="4">
         <v>225193</v>
       </c>
-      <c r="C239" t="s">
-        <v>344</v>
-      </c>
       <c r="D239" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E239" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C240" s="4">
         <v>243322</v>
       </c>
-      <c r="C240" t="s">
-        <v>344</v>
-      </c>
       <c r="D240" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E240" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C241" s="4">
         <v>287063</v>
       </c>
-      <c r="C241" t="s">
-        <v>344</v>
-      </c>
       <c r="D241" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E241" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C242" s="4">
         <v>301446</v>
       </c>
-      <c r="C242" t="s">
-        <v>344</v>
-      </c>
       <c r="D242" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E242" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C243" s="4">
         <v>327871</v>
       </c>
-      <c r="C243" t="s">
-        <v>344</v>
-      </c>
       <c r="D243" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E243" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C244" s="4">
         <v>352334</v>
       </c>
-      <c r="C244" t="s">
-        <v>344</v>
-      </c>
       <c r="D244" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E244" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C245" s="4">
         <v>296589</v>
       </c>
-      <c r="C245" t="s">
-        <v>344</v>
-      </c>
       <c r="D245" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E245" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C246" s="4">
         <v>324574</v>
       </c>
-      <c r="C246" t="s">
-        <v>344</v>
-      </c>
       <c r="D246" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E246" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C247" s="4">
         <v>356582</v>
       </c>
-      <c r="C247" t="s">
-        <v>344</v>
-      </c>
       <c r="D247" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E247" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C248" s="4">
         <v>375059</v>
       </c>
-      <c r="C248" t="s">
-        <v>344</v>
-      </c>
       <c r="D248" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E248" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C249" s="4">
         <v>460781</v>
       </c>
-      <c r="C249" t="s">
-        <v>344</v>
-      </c>
       <c r="D249" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E249" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C250" s="4">
         <v>484913</v>
       </c>
-      <c r="C250" t="s">
-        <v>344</v>
-      </c>
       <c r="D250" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E250" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C251" s="4">
         <v>519885</v>
       </c>
-      <c r="C251" t="s">
-        <v>344</v>
-      </c>
       <c r="D251" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E251" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C252" s="4">
         <v>570570</v>
       </c>
-      <c r="C252" t="s">
-        <v>344</v>
-      </c>
       <c r="D252" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E252" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C253" s="4">
         <v>651967</v>
       </c>
-      <c r="C253" t="s">
-        <v>344</v>
-      </c>
       <c r="D253" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E253" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C254" s="4">
         <v>710835</v>
       </c>
-      <c r="C254" t="s">
-        <v>344</v>
-      </c>
       <c r="D254" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E254" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C255" s="4">
         <v>274799</v>
       </c>
-      <c r="C255" t="s">
-        <v>344</v>
-      </c>
       <c r="D255" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E255" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C256" s="4">
         <v>300838</v>
       </c>
-      <c r="C256" t="s">
-        <v>344</v>
-      </c>
       <c r="D256" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E256" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C257" s="4">
         <v>330899</v>
       </c>
-      <c r="C257" t="s">
-        <v>344</v>
-      </c>
       <c r="D257" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E257" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C258" s="4">
         <v>352979</v>
       </c>
-      <c r="C258" t="s">
-        <v>344</v>
-      </c>
       <c r="D258" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E258" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C259" s="4">
         <v>429266</v>
       </c>
-      <c r="C259" t="s">
-        <v>344</v>
-      </c>
       <c r="D259" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E259" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C260" s="4">
         <v>449330</v>
       </c>
-      <c r="C260" t="s">
-        <v>344</v>
-      </c>
       <c r="D260" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E260" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C261" s="4">
         <v>482370</v>
       </c>
-      <c r="C261" t="s">
-        <v>344</v>
-      </c>
       <c r="D261" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E261" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C262" s="4">
         <v>528882</v>
       </c>
-      <c r="C262" t="s">
-        <v>344</v>
-      </c>
       <c r="D262" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E262" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C263" s="4">
         <v>624549</v>
       </c>
-      <c r="C263" t="s">
-        <v>344</v>
-      </c>
       <c r="D263" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E263" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C264" s="4">
         <v>676987</v>
       </c>
-      <c r="C264" t="s">
-        <v>344</v>
-      </c>
       <c r="D264" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E264" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C265" s="4">
         <v>230637</v>
       </c>
-      <c r="C265" t="s">
-        <v>344</v>
-      </c>
       <c r="D265" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E265" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C266" s="4">
         <v>256245</v>
       </c>
-      <c r="C266" t="s">
-        <v>344</v>
-      </c>
       <c r="D266" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E266" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C267" s="4">
         <v>275996</v>
       </c>
-      <c r="C267" t="s">
-        <v>344</v>
-      </c>
       <c r="D267" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E267" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C268" s="4">
         <v>296440</v>
       </c>
-      <c r="C268" t="s">
-        <v>344</v>
-      </c>
       <c r="D268" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E268" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C269" s="4">
         <v>350961</v>
       </c>
-      <c r="C269" t="s">
-        <v>344</v>
-      </c>
       <c r="D269" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E269" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C270" s="4">
         <v>367279</v>
       </c>
-      <c r="C270" t="s">
-        <v>344</v>
-      </c>
       <c r="D270" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E270" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C271" s="4">
         <v>401951</v>
       </c>
-      <c r="C271" t="s">
-        <v>344</v>
-      </c>
       <c r="D271" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E271" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C272" s="4">
         <v>429712</v>
       </c>
-      <c r="C272" t="s">
-        <v>344</v>
-      </c>
       <c r="D272" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E272" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C273" s="4">
         <v>150852</v>
       </c>
-      <c r="C273" t="s">
-        <v>344</v>
-      </c>
       <c r="D273" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E273" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C274" s="4">
         <v>150852</v>
       </c>
-      <c r="C274" t="s">
-        <v>344</v>
-      </c>
       <c r="D274" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E274" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C275" s="4">
         <v>165229</v>
       </c>
-      <c r="C275" t="s">
-        <v>344</v>
-      </c>
       <c r="D275" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E275" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C276" s="4">
         <v>178593</v>
       </c>
-      <c r="C276" t="s">
-        <v>344</v>
-      </c>
       <c r="D276" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E276" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C277" s="4">
         <v>190925</v>
       </c>
-      <c r="C277" t="s">
-        <v>344</v>
-      </c>
       <c r="D277" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E277" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C278" s="4">
         <v>226687</v>
       </c>
-      <c r="C278" t="s">
-        <v>344</v>
-      </c>
       <c r="D278" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E278" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C279" s="4">
         <v>238366</v>
       </c>
-      <c r="C279" t="s">
-        <v>344</v>
-      </c>
       <c r="D279" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E279" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C280" s="4">
         <v>238366</v>
       </c>
-      <c r="C280" t="s">
-        <v>344</v>
-      </c>
       <c r="D280" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E280" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C281" s="4">
         <v>258035</v>
       </c>
-      <c r="C281" t="s">
-        <v>344</v>
-      </c>
       <c r="D281" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E281" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C282" s="4">
         <v>148347</v>
       </c>
-      <c r="C282" t="s">
-        <v>344</v>
-      </c>
       <c r="D282" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E282" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C283" s="4">
         <v>579996</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>345</v>
       </c>
-      <c r="D283" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C284" s="4">
         <v>651216</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>345</v>
       </c>
-      <c r="D284" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C285" s="4">
         <v>126240</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>346</v>
       </c>
-      <c r="D285" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C286" s="4">
         <v>126094</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>346</v>
       </c>
-      <c r="D286" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C287" s="4">
         <v>132527</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>346</v>
       </c>
-      <c r="D287" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C288" s="4">
         <v>132370</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>346</v>
       </c>
-      <c r="D288" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C289" s="4">
         <v>141784</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>346</v>
       </c>
-      <c r="D289" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C290" s="4">
         <v>141750</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>346</v>
       </c>
-      <c r="D290" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C291" s="4">
         <v>168894</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>346</v>
       </c>
-      <c r="D291" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C292" s="4">
         <v>173243</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>346</v>
       </c>
-      <c r="D292" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C293" s="4">
         <v>182748</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>346</v>
       </c>
-      <c r="D293" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C294" s="4">
         <v>130951</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>346</v>
       </c>
-      <c r="D294" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C295" s="4">
         <v>130951</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>346</v>
       </c>
-      <c r="D295" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C296" s="4">
         <v>130951</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>346</v>
       </c>
-      <c r="D296" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C297" s="4">
         <v>133466</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>346</v>
       </c>
-      <c r="D297" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C298" s="4">
         <v>130951</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>346</v>
       </c>
-      <c r="D298" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C299" s="4">
         <v>130951</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" t="s">
         <v>346</v>
       </c>
-      <c r="D299" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C300" s="4">
         <v>130927</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>346</v>
       </c>
-      <c r="D300" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C301" s="4">
         <v>130927</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>346</v>
       </c>
-      <c r="D301" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C302" s="4">
         <v>130927</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>346</v>
       </c>
-      <c r="D302" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C303" s="4">
         <v>133535</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>346</v>
       </c>
-      <c r="D303" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C304" s="4">
         <v>130927</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>346</v>
       </c>
-      <c r="D304" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C305" s="4">
         <v>137428</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>346</v>
       </c>
-      <c r="D305" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C306" s="4">
         <v>137428</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>346</v>
       </c>
-      <c r="D306" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C307" s="4">
         <v>137428</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
         <v>346</v>
       </c>
-      <c r="D307" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C308" s="4">
         <v>140036</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
         <v>346</v>
       </c>
-      <c r="D308" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C309" s="4">
         <v>137428</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>346</v>
       </c>
-      <c r="D309" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C310" s="4">
         <v>137428</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>346</v>
       </c>
-      <c r="D310" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C311" s="4">
         <v>137394</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>346</v>
       </c>
-      <c r="D311" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C312" s="4">
         <v>137394</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>346</v>
       </c>
-      <c r="D312" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C313" s="4">
         <v>137394</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" t="s">
         <v>346</v>
       </c>
-      <c r="D313" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C314" s="4">
         <v>140095</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>346</v>
       </c>
-      <c r="D314" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C315" s="4">
         <v>146908</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>346</v>
       </c>
-      <c r="D315" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C316" s="4">
         <v>146908</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
         <v>346</v>
       </c>
-      <c r="D316" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C317" s="4">
         <v>146908</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
         <v>346</v>
       </c>
-      <c r="D317" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C318" s="4">
         <v>149609</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>346</v>
       </c>
-      <c r="D318" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C319" s="4">
         <v>146908</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>346</v>
       </c>
-      <c r="D319" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C320" s="4">
         <v>146908</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>346</v>
       </c>
-      <c r="D320" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C321" s="4">
         <v>146998</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>346</v>
       </c>
-      <c r="D321" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C322" s="4">
         <v>146998</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>346</v>
       </c>
-      <c r="D322" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C323" s="4">
         <v>146998</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>346</v>
       </c>
-      <c r="D323" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C324" s="4">
         <v>149791</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>346</v>
       </c>
-      <c r="D324" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C325" s="4">
         <v>174678</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>346</v>
       </c>
-      <c r="D325" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C326" s="4">
         <v>174678</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>346</v>
       </c>
-      <c r="D326" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C327" s="4">
         <v>177657</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>346</v>
       </c>
-      <c r="D327" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C328" s="4">
         <v>174678</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>346</v>
       </c>
-      <c r="D328" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C329" s="4">
         <v>174678</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>346</v>
       </c>
-      <c r="D329" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C330" s="4">
         <v>179198</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
         <v>346</v>
       </c>
-      <c r="D330" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C331" s="4">
         <v>179198</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>346</v>
       </c>
-      <c r="D331" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C332" s="4">
         <v>179198</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>346</v>
       </c>
-      <c r="D332" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C333" s="4">
         <v>182269</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>346</v>
       </c>
-      <c r="D333" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C334" s="4">
         <v>179198</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>346</v>
       </c>
-      <c r="D334" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C335" s="4">
         <v>179198</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>346</v>
       </c>
-      <c r="D335" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C336" s="4">
         <v>188928</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>346</v>
       </c>
-      <c r="D336" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B337" s="4">
+      <c r="B337" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C337" s="4">
         <v>188928</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>346</v>
       </c>
-      <c r="D337" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C338" s="4">
         <v>192092</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>346</v>
       </c>
-      <c r="D338" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B339" s="4">
+      <c r="B339" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C339" s="4">
         <v>188928</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>346</v>
       </c>
-      <c r="D339" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C340" s="4">
         <v>188928</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>346</v>
       </c>
-      <c r="D340" t="s">
+      <c r="E340" t="s">
         <v>348</v>
       </c>
     </row>

--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Desktop\colchonespremium\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1463,8 +1463,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="B340" sqref="B340"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
